--- a/UploadDocument/PLE_Doubles_Template.xlsx
+++ b/UploadDocument/PLE_Doubles_Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeyasudha SR\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Selvakannan A\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486CA052-1C5A-4DAD-8ACB-52B66EC2D3C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C311AC-F301-4F10-BD89-0E7CE88923AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>OrgCode</t>
   </si>
@@ -37,18 +37,6 @@
     <t>ittfid2 OrgCode</t>
   </si>
   <si>
-    <t>ittfid1 ParalympicClassName</t>
-  </si>
-  <si>
-    <t>ittfid2 ParalympicClassName</t>
-  </si>
-  <si>
-    <t>ittfid1 StateCode</t>
-  </si>
-  <si>
-    <t>ittfid2 StateCode</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -67,22 +55,16 @@
     <t>Seed</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>CHN</t>
   </si>
   <si>
+    <t>Confirmed</t>
+  </si>
+  <si>
     <t>M</t>
   </si>
   <si>
     <t>AER</t>
-  </si>
-  <si>
-    <t>AFG</t>
-  </si>
-  <si>
-    <t>Confirmed</t>
   </si>
 </sst>
 </file>
@@ -106,7 +88,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -114,28 +96,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,186 +441,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
     <col min="4" max="5" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="24.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="B2">
+        <v>131163</v>
+      </c>
+      <c r="C2">
+        <v>124110</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="H2" t="s">
         <v>14</v>
       </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>8300</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2">
-        <v>103416</v>
-      </c>
-      <c r="C2">
-        <v>103416</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2">
-        <v>1162</v>
-      </c>
-      <c r="O2">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>116805</v>
+        <v>121411</v>
       </c>
       <c r="C3">
-        <v>116805</v>
+        <v>112019</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3">
-        <v>1162</v>
-      </c>
-      <c r="O3">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4">
-        <v>103317</v>
-      </c>
-      <c r="C4">
-        <v>103317</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4">
-        <v>1162</v>
-      </c>
-      <c r="O4">
-        <v>1162</v>
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>5965</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="F2:I2 A1:C1 E1:O1" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:K1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>